--- a/blocks_conditions.xlsx
+++ b/blocks_conditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantracy/Desktop/andre rc studies/police meta perceptions project/study 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantracy/Desktop/andre rc studies/police meta perceptions project/study 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16B984B-E083-BF42-85F2-A6A82FE4BA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{591EE16C-F083-2B44-99A0-41F3728042E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{2DF570FD-F668-2042-AAE4-9922E675E617}"/>
   </bookViews>
@@ -428,13 +428,10 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/blocks_conditions.xlsx
+++ b/blocks_conditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantracy/Desktop/andre rc studies/police meta perceptions project/study 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantracy/Desktop/police meta 2/pol_meta2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{591EE16C-F083-2B44-99A0-41F3728042E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA5A407-D927-1D4C-B0C8-21C24DF41698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{2DF570FD-F668-2042-AAE4-9922E675E617}"/>
   </bookViews>
@@ -428,10 +428,13 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
